--- a/Resource/excel/reset.xlsx
+++ b/Resource/excel/reset.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\server\KFrame\Resource\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Fighter\Resource\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2205" yWindow="0" windowWidth="22785" windowHeight="12570"/>
+    <workbookView xWindow="4410" yWindow="0" windowWidth="22785" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Reset" sheetId="1" r:id="rId1"/>
@@ -17,12 +17,82 @@
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>lori</author>
+  </authors>
+  <commentList>
+    <comment ref="C2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>lori:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+            Hour = 1, 每小时
+            Day = 2,  每天
+            Week = 3, 每周
+            Month = 4, 每月
+            Year = 5, 每年</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+lori:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">  
+1 添加
+2 减少
+3 设置
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>NoteId</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -32,10 +102,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>TimeValue</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>ParentName</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -76,10 +142,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>quest</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Key</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -88,15 +150,43 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>toast</t>
+    <t>TimeHour</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TimeDay</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>signin</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sevenday</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sevenreward</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Operate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>几点小时</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -130,8 +220,30 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -153,6 +265,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -186,7 +304,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -215,6 +333,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -588,35 +712,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
+      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="15" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="17.125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="19.125" style="2" customWidth="1"/>
-    <col min="12" max="12" width="17.125" style="2" customWidth="1"/>
-    <col min="13" max="13" width="8.375" style="2" customWidth="1"/>
-    <col min="14" max="14" width="16.25" style="2" customWidth="1"/>
-    <col min="15" max="15" width="19.625" style="2" customWidth="1"/>
-    <col min="16" max="16" width="16" style="2" customWidth="1"/>
-    <col min="17" max="16384" width="9" style="2"/>
+    <col min="3" max="3" width="16.5" style="2" customWidth="1"/>
+    <col min="4" max="5" width="12.125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="18.5" style="2" customWidth="1"/>
+    <col min="7" max="7" width="21.125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.75" style="2" customWidth="1"/>
+    <col min="10" max="10" width="6.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="17.125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="19.125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="17.125" style="2" customWidth="1"/>
+    <col min="15" max="15" width="8.375" style="2" customWidth="1"/>
+    <col min="16" max="16" width="16.25" style="2" customWidth="1"/>
+    <col min="17" max="17" width="19.625" style="2" customWidth="1"/>
+    <col min="18" max="18" width="16" style="2" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -624,127 +749,187 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+    </row>
+    <row r="2" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-    </row>
-    <row r="2" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="9" t="s">
+      <c r="C2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="D2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="E2" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="G2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="H2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="I2" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="H3" s="6"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
+    </row>
+    <row r="3" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J3" s="6"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
       <c r="M3" s="8"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A4" s="1"/>
       <c r="B4" s="2">
         <v>10000</v>
       </c>
       <c r="C4" s="2">
+        <v>3</v>
+      </c>
+      <c r="D4" s="2">
         <v>1</v>
       </c>
-      <c r="D4" s="2">
+      <c r="E4" s="2">
         <v>0</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="2">
-        <v>1</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="2">
+      <c r="F4" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="H4" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="11">
+        <v>3</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
       <c r="B5" s="2">
+        <v>10000</v>
+      </c>
+      <c r="C5" s="2">
+        <v>3</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="11">
+        <v>3</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A6" s="1"/>
+      <c r="B6" s="2">
         <v>10001</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C6" s="2">
+        <v>2</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="2">
         <v>1</v>
       </c>
-      <c r="D5" s="2">
-        <v>0</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A6" s="1"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="H6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="2">
+        <v>1</v>
+      </c>
+      <c r="J6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A13" s="1"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A15" s="1"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A16" s="1"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.15">
@@ -773,17 +958,12 @@
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A25" s="1"/>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A26" s="1"/>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A27" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Resource/excel/reset.xlsx
+++ b/Resource/excel/reset.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Fighter\Resource\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work\Server\Resource\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -154,10 +154,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>TimeDay</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>signin</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -170,22 +166,26 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>操作</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>几点小时</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>Operate</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>操作</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>几点小时</t>
+    <t>TimeValue</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -715,9 +715,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -749,7 +749,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>14</v>
@@ -764,7 +764,7 @@
         <v>3</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>4</v>
@@ -786,7 +786,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>8</v>
@@ -798,7 +798,7 @@
         <v>10</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J2" s="9" t="s">
         <v>11</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G4" s="2">
         <v>0</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I4" s="11">
         <v>3</v>
@@ -857,13 +857,13 @@
         <v>0</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G5" s="2">
         <v>0</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I5" s="11">
         <v>3</v>
@@ -887,7 +887,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G6" s="2">
         <v>1</v>

--- a/Resource/excel/reset.xlsx
+++ b/Resource/excel/reset.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work\Server\Resource\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\job\Resource\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
   <si>
     <t>NoteId</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -180,6 +180,9 @@
   <si>
     <t>TimeValue</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>toast</t>
   </si>
 </sst>
 </file>
@@ -717,7 +720,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -884,7 +887,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F6" s="10" t="s">
         <v>15</v>
@@ -904,6 +907,30 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
+      <c r="B7" s="2">
+        <v>10001</v>
+      </c>
+      <c r="C7" s="2">
+        <v>2</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>4</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2">
+        <v>3</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>

--- a/Resource/excel/reset.xlsx
+++ b/Resource/excel/reset.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\job\Resource\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Fighter\Resource\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4410" yWindow="0" windowWidth="22785" windowHeight="12570"/>
+    <workbookView xWindow="6615" yWindow="0" windowWidth="22785" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Reset" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>NoteId</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -146,10 +146,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>value</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>TimeHour</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -166,6 +162,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>Operate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>操作</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -174,15 +174,12 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Operate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>TimeValue</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>toast</t>
+    <t>sevenday</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -720,7 +717,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
+      <selection pane="bottomLeft" activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -752,10 +749,10 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
@@ -767,7 +764,7 @@
         <v>3</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>4</v>
@@ -830,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G4" s="2">
         <v>0</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I4" s="11">
         <v>3</v>
@@ -860,13 +857,13 @@
         <v>0</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G5" s="2">
         <v>0</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I5" s="11">
         <v>3</v>
@@ -887,16 +884,16 @@
         <v>0</v>
       </c>
       <c r="E6" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="I6" s="2">
         <v>1</v>
@@ -907,30 +904,6 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
-      <c r="B7" s="2">
-        <v>10001</v>
-      </c>
-      <c r="C7" s="2">
-        <v>2</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0</v>
-      </c>
-      <c r="E7" s="2">
-        <v>4</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="2">
-        <v>0</v>
-      </c>
-      <c r="I7" s="2">
-        <v>3</v>
-      </c>
-      <c r="J7" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>

--- a/Resource/excel/reset.xlsx
+++ b/Resource/excel/reset.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Fighter\Resource\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Work\Server\trunk\Resource\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,7 +17,7 @@
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
   <si>
     <t>NoteId</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -180,6 +180,9 @@
   <si>
     <t>sevenday</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>toast</t>
   </si>
 </sst>
 </file>
@@ -715,9 +718,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F34" sqref="F34"/>
+      <selection pane="bottomLeft" activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -904,6 +907,30 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
+      <c r="B7" s="2">
+        <v>10001</v>
+      </c>
+      <c r="C7" s="2">
+        <v>2</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>

--- a/Resource/excel/reset.xlsx
+++ b/Resource/excel/reset.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Work\Server\trunk\Resource\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\newserver2\trunk\Resource\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -92,97 +92,100 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>NoteId</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>ParentName</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DataName</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Value</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务器记录id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间数值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>父属性名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>键值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Key</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TimeHour</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>signin</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sevenday</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sevenreward</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Operate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>几点小时</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TimeValue</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sevenday</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>toast</t>
+  </si>
+  <si>
     <t>TimeType</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>ParentName</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DataName</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Value</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>服务器记录id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>时间类型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>时间数值</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>父属性名称</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>键值</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>属性名称</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>数值</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Key</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TimeHour</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>signin</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>sevenday</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>sevenreward</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Operate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>操作</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>几点小时</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TimeValue</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>sevenday</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>toast</t>
+    <t>guilddayactiviness</t>
   </si>
 </sst>
 </file>
@@ -718,9 +721,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J7" sqref="J7"/>
+      <selection pane="bottomLeft" activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -749,28 +752,28 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>3</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>4</v>
       </c>
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
@@ -780,31 +783,31 @@
     </row>
     <row r="2" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B2" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="D2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="E2" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="9" t="s">
+      <c r="G2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="H2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="I2" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="9" t="s">
         <v>10</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.15">
@@ -830,13 +833,13 @@
         <v>0</v>
       </c>
       <c r="F4" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" s="11" t="s">
         <v>14</v>
-      </c>
-      <c r="G4" s="2">
-        <v>0</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>15</v>
       </c>
       <c r="I4" s="11">
         <v>3</v>
@@ -860,13 +863,13 @@
         <v>0</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G5" s="2">
         <v>0</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I5" s="11">
         <v>3</v>
@@ -890,13 +893,13 @@
         <v>0</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G6" s="2">
         <v>0</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I6" s="2">
         <v>1</v>
@@ -920,7 +923,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G7" s="2">
         <v>0</v>
@@ -934,6 +937,30 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
+      <c r="B8" s="2">
+        <v>10001</v>
+      </c>
+      <c r="C8" s="2">
+        <v>2</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>

--- a/Resource/excel/reset.xlsx
+++ b/Resource/excel/reset.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\newserver2\trunk\Resource\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Work\Server\trunk\Resource\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6615" yWindow="0" windowWidth="22785" windowHeight="12570"/>
+    <workbookView xWindow="9450" yWindow="0" windowWidth="22785" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Reset" sheetId="1" r:id="rId1"/>
@@ -723,7 +723,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K14" sqref="K14"/>
+      <selection pane="bottomLeft" activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -830,7 +830,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F4" s="10" t="s">
         <v>13</v>
@@ -860,7 +860,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F5" s="10" t="s">
         <v>13</v>
@@ -890,7 +890,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F6" s="10" t="s">
         <v>13</v>
@@ -920,7 +920,7 @@
         <v>0</v>
       </c>
       <c r="E7" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F7" s="10" t="s">
         <v>21</v>
@@ -947,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>23</v>

--- a/Resource/excel/reset.xlsx
+++ b/Resource/excel/reset.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Work\Server\trunk\Resource\excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9450" yWindow="0" windowWidth="22785" windowHeight="12570"/>
+    <workbookView windowWidth="26175" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="Reset" sheetId="1" r:id="rId1"/>
@@ -27,15 +22,13 @@
     <author>lori</author>
   </authors>
   <commentList>
-    <comment ref="C2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>lori:</t>
@@ -43,9 +36,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -57,15 +48,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="I2" authorId="0" shapeId="0">
+    <comment ref="K2" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -74,9 +63,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">  
@@ -92,107 +79,121 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34">
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Descripe</t>
+  </si>
   <si>
     <t>NoteId</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TimeType</t>
+  </si>
+  <si>
+    <t>TimeValue</t>
+  </si>
+  <si>
+    <t>TimeHour</t>
   </si>
   <si>
     <t>ParentName</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Key</t>
   </si>
   <si>
     <t>DataName</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Operate</t>
   </si>
   <si>
     <t>Value</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+  </si>
+  <si>
+    <t>具体描述</t>
   </si>
   <si>
     <t>服务器记录id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>时间类型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>时间数值</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>几点小时</t>
   </si>
   <si>
     <t>父属性名称</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>键值</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>属性名称</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作</t>
   </si>
   <si>
     <t>数值</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Key</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TimeHour</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每周1, 6点重置</t>
+  </si>
+  <si>
+    <t>7天签到的总天数</t>
   </si>
   <si>
     <t>signin</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>sevenday</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7天签到的奖励标识</t>
   </si>
   <si>
     <t>sevenreward</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Operate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>操作</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>几点小时</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TimeValue</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>sevenday</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>toast</t>
-  </si>
-  <si>
-    <t>TimeType</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>guilddayactiviness</t>
+  </si>
+  <si>
+    <t>每周限购商品</t>
+  </si>
+  <si>
+    <t>weeklystore</t>
+  </si>
+  <si>
+    <t>每天 6点重置</t>
+  </si>
+  <si>
+    <t>7天签到的每日签到</t>
+  </si>
+  <si>
+    <t>每日限购商品</t>
+  </si>
+  <si>
+    <t>dailystore</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -203,53 +204,179 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -280,8 +407,206 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -304,57 +629,368 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -376,15 +1012,12 @@
   </tableStyles>
   <colors>
     <mruColors>
-      <color rgb="FF05FF6F"/>
+      <color rgb="0005FF6F"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -713,310 +1346,400 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H16" sqref="H16"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="15" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5" style="2" customWidth="1"/>
-    <col min="4" max="5" width="12.125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="18.5" style="2" customWidth="1"/>
-    <col min="7" max="7" width="21.125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.75" style="2" customWidth="1"/>
-    <col min="10" max="10" width="6.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="17.125" style="2" customWidth="1"/>
-    <col min="13" max="13" width="19.125" style="2" customWidth="1"/>
-    <col min="14" max="14" width="17.125" style="2" customWidth="1"/>
-    <col min="15" max="15" width="8.375" style="2" customWidth="1"/>
-    <col min="16" max="16" width="16.25" style="2" customWidth="1"/>
-    <col min="17" max="17" width="19.625" style="2" customWidth="1"/>
-    <col min="18" max="18" width="16" style="2" customWidth="1"/>
-    <col min="19" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="9" style="6"/>
+    <col min="2" max="2" width="15.25" style="6" customWidth="1"/>
+    <col min="3" max="3" width="37.5" style="6" customWidth="1"/>
+    <col min="4" max="4" width="15" style="6" customWidth="1"/>
+    <col min="5" max="5" width="16.5" style="6" customWidth="1"/>
+    <col min="6" max="7" width="12.125" style="6" customWidth="1"/>
+    <col min="8" max="8" width="18.5" style="6" customWidth="1"/>
+    <col min="9" max="9" width="21.125" style="6" customWidth="1"/>
+    <col min="10" max="11" width="12.75" style="6" customWidth="1"/>
+    <col min="12" max="12" width="6.375" style="6" customWidth="1"/>
+    <col min="13" max="14" width="17.125" style="6" customWidth="1"/>
+    <col min="15" max="15" width="19.125" style="6" customWidth="1"/>
+    <col min="16" max="16" width="17.125" style="6" customWidth="1"/>
+    <col min="17" max="17" width="8.375" style="6" customWidth="1"/>
+    <col min="18" max="18" width="16.25" style="6" customWidth="1"/>
+    <col min="19" max="19" width="19.625" style="6" customWidth="1"/>
+    <col min="20" max="20" width="16" style="6" customWidth="1"/>
+    <col min="21" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" s="1" customFormat="1" spans="2:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+    </row>
+    <row r="2" s="2" customFormat="1" spans="2:12">
+      <c r="B2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" s="3" customFormat="1" spans="13:17">
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="17"/>
+    </row>
+    <row r="4" s="4" customFormat="1" spans="1:12">
+      <c r="A4" s="7"/>
+      <c r="B4" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="C4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="4">
+        <v>10000</v>
+      </c>
+      <c r="E4" s="4">
+        <v>3</v>
+      </c>
+      <c r="F4" s="4">
         <v>1</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="G4" s="4">
+        <v>6</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="4">
+        <v>0</v>
+      </c>
+      <c r="J4" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" s="18">
+        <v>3</v>
+      </c>
+      <c r="L4" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" s="4" customFormat="1" spans="1:12">
+      <c r="A5" s="7"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="4">
+        <v>10000</v>
+      </c>
+      <c r="E5" s="4">
+        <v>3</v>
+      </c>
+      <c r="F5" s="4">
+        <v>1</v>
+      </c>
+      <c r="G5" s="4">
+        <v>6</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="4">
+        <v>0</v>
+      </c>
+      <c r="J5" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5" s="18">
+        <v>3</v>
+      </c>
+      <c r="L5" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" s="4" customFormat="1" spans="1:12">
+      <c r="A6" s="7"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="4">
+        <v>10000</v>
+      </c>
+      <c r="E6" s="4">
+        <v>3</v>
+      </c>
+      <c r="F6" s="4">
+        <v>1</v>
+      </c>
+      <c r="G6" s="4">
+        <v>6</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="4">
+        <v>0</v>
+      </c>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18">
+        <v>0</v>
+      </c>
+      <c r="L6" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" s="5" customFormat="1" spans="1:12">
+      <c r="A7" s="10"/>
+      <c r="B7" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="5">
+        <v>10001</v>
+      </c>
+      <c r="E7" s="5">
         <v>2</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-    </row>
-    <row r="2" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="9" t="s">
+      <c r="F7" s="5">
+        <v>0</v>
+      </c>
+      <c r="G7" s="5">
         <v>6</v>
       </c>
-      <c r="E2" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="J3" s="6"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2">
-        <v>10000</v>
-      </c>
-      <c r="C4" s="2">
-        <v>3</v>
-      </c>
-      <c r="D4" s="2">
+      <c r="H7" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" s="5">
+        <v>0</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" s="5">
         <v>1</v>
       </c>
-      <c r="E4" s="2">
+      <c r="L7" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" s="5" customFormat="1" spans="1:12">
+      <c r="A8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="5">
+        <v>10001</v>
+      </c>
+      <c r="E8" s="5">
+        <v>2</v>
+      </c>
+      <c r="F8" s="5">
+        <v>0</v>
+      </c>
+      <c r="G8" s="5">
         <v>6</v>
       </c>
-      <c r="F4" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="2">
+      <c r="H8" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="I8" s="5">
         <v>0</v>
       </c>
-      <c r="H4" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="11">
-        <v>3</v>
-      </c>
-      <c r="J4" s="2">
+      <c r="K8" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2">
-        <v>10000</v>
-      </c>
-      <c r="C5" s="2">
-        <v>3</v>
-      </c>
-      <c r="D5" s="2">
-        <v>1</v>
-      </c>
-      <c r="E5" s="2">
-        <v>6</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="2">
+      <c r="L8" s="5">
         <v>0</v>
       </c>
-      <c r="H5" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" s="11">
-        <v>3</v>
-      </c>
-      <c r="J5" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2">
-        <v>10001</v>
-      </c>
-      <c r="C6" s="2">
-        <v>2</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0</v>
-      </c>
-      <c r="E6" s="2">
-        <v>6</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="2">
-        <v>0</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I6" s="2">
-        <v>1</v>
-      </c>
-      <c r="J6" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A7" s="1"/>
-      <c r="B7" s="2">
-        <v>10001</v>
-      </c>
-      <c r="C7" s="2">
-        <v>2</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0</v>
-      </c>
-      <c r="E7" s="2">
-        <v>6</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="2">
-        <v>0</v>
-      </c>
-      <c r="I7" s="2">
-        <v>0</v>
-      </c>
-      <c r="J7" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A8" s="1"/>
-      <c r="B8" s="2">
-        <v>10001</v>
-      </c>
-      <c r="C8" s="2">
-        <v>2</v>
-      </c>
-      <c r="D8" s="2">
-        <v>0</v>
-      </c>
-      <c r="E8" s="2">
-        <v>6</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="2">
-        <v>0</v>
-      </c>
-      <c r="I8" s="2">
-        <v>0</v>
-      </c>
-      <c r="J8" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" s="1"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" s="1"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" s="1"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" s="1"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" s="1"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" s="1"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" s="1"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" s="1"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" s="1"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="1"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" s="1"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" s="1"/>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" s="1"/>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" s="1"/>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" s="1"/>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A25" s="1"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" s="14"/>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" s="14"/>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" s="14"/>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" s="14"/>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" s="14"/>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" s="14"/>
+    </row>
+    <row r="31" spans="2:2">
+      <c r="B31" s="14"/>
+    </row>
+    <row r="32" spans="2:2">
+      <c r="B32" s="14"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>

--- a/Resource/excel/reset.xlsx
+++ b/Resource/excel/reset.xlsx
@@ -22,7 +22,7 @@
     <author>lori</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0">
+    <comment ref="D2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -48,7 +48,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K2" authorId="0">
+    <comment ref="J2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -193,7 +193,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -214,29 +214,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -248,21 +244,35 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -277,32 +287,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -316,14 +311,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -332,6 +319,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -348,35 +350,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="39">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -415,13 +403,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -433,13 +505,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -451,43 +529,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -499,31 +547,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -535,31 +559,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -571,37 +571,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -630,6 +606,32 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -649,22 +651,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -673,22 +669,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -708,22 +689,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -732,152 +708,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -899,28 +875,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
@@ -930,9 +900,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1352,390 +1319,368 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q32"/>
+  <dimension ref="A1:P32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H13" sqref="H13"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A$1:A$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="6"/>
-    <col min="2" max="2" width="15.25" style="6" customWidth="1"/>
-    <col min="3" max="3" width="37.5" style="6" customWidth="1"/>
-    <col min="4" max="4" width="15" style="6" customWidth="1"/>
-    <col min="5" max="5" width="16.5" style="6" customWidth="1"/>
-    <col min="6" max="7" width="12.125" style="6" customWidth="1"/>
-    <col min="8" max="8" width="18.5" style="6" customWidth="1"/>
-    <col min="9" max="9" width="21.125" style="6" customWidth="1"/>
-    <col min="10" max="11" width="12.75" style="6" customWidth="1"/>
-    <col min="12" max="12" width="6.375" style="6" customWidth="1"/>
-    <col min="13" max="14" width="17.125" style="6" customWidth="1"/>
-    <col min="15" max="15" width="19.125" style="6" customWidth="1"/>
-    <col min="16" max="16" width="17.125" style="6" customWidth="1"/>
-    <col min="17" max="17" width="8.375" style="6" customWidth="1"/>
-    <col min="18" max="18" width="16.25" style="6" customWidth="1"/>
-    <col min="19" max="19" width="19.625" style="6" customWidth="1"/>
-    <col min="20" max="20" width="16" style="6" customWidth="1"/>
-    <col min="21" max="16384" width="9" style="6"/>
+    <col min="1" max="1" width="15.25" style="6" customWidth="1"/>
+    <col min="2" max="2" width="37.5" style="6" customWidth="1"/>
+    <col min="3" max="3" width="15" style="6" customWidth="1"/>
+    <col min="4" max="4" width="16.5" style="6" customWidth="1"/>
+    <col min="5" max="6" width="12.125" style="6" customWidth="1"/>
+    <col min="7" max="7" width="18.5" style="6" customWidth="1"/>
+    <col min="8" max="8" width="21.125" style="6" customWidth="1"/>
+    <col min="9" max="10" width="12.75" style="6" customWidth="1"/>
+    <col min="11" max="11" width="6.375" style="6" customWidth="1"/>
+    <col min="12" max="13" width="17.125" style="6" customWidth="1"/>
+    <col min="14" max="14" width="19.125" style="6" customWidth="1"/>
+    <col min="15" max="15" width="17.125" style="6" customWidth="1"/>
+    <col min="16" max="16" width="8.375" style="6" customWidth="1"/>
+    <col min="17" max="17" width="16.25" style="6" customWidth="1"/>
+    <col min="18" max="18" width="19.625" style="6" customWidth="1"/>
+    <col min="19" max="19" width="16" style="6" customWidth="1"/>
+    <col min="20" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="2:17">
+    <row r="1" s="1" customFormat="1" spans="1:16">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="6"/>
       <c r="O1" s="6"/>
       <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-    </row>
-    <row r="2" s="2" customFormat="1" spans="2:12">
+    </row>
+    <row r="2" s="2" customFormat="1" spans="1:11">
+      <c r="A2" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="B2" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L2" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" s="3" customFormat="1" spans="13:17">
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="17"/>
-      <c r="Q3" s="17"/>
-    </row>
-    <row r="4" s="4" customFormat="1" spans="1:12">
-      <c r="A4" s="7"/>
-      <c r="B4" s="8" t="s">
+    <row r="3" s="3" customFormat="1" spans="12:16">
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+    </row>
+    <row r="4" s="4" customFormat="1" spans="1:11">
+      <c r="A4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>23</v>
       </c>
+      <c r="C4" s="4">
+        <v>10000</v>
+      </c>
       <c r="D4" s="4">
+        <v>3</v>
+      </c>
+      <c r="E4" s="4">
+        <v>1</v>
+      </c>
+      <c r="F4" s="4">
+        <v>6</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="8">
+        <v>3</v>
+      </c>
+      <c r="K4" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" s="4" customFormat="1" spans="1:11">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="4">
         <v>10000</v>
       </c>
-      <c r="E4" s="4">
+      <c r="D5" s="4">
         <v>3</v>
       </c>
-      <c r="F4" s="4">
+      <c r="E5" s="4">
         <v>1</v>
       </c>
-      <c r="G4" s="4">
+      <c r="F5" s="4">
         <v>6</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="G5" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="4">
+      <c r="H5" s="4">
         <v>0</v>
       </c>
-      <c r="J4" s="18" t="s">
+      <c r="I5" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" s="8">
+        <v>3</v>
+      </c>
+      <c r="K5" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" s="4" customFormat="1" spans="1:11">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="4">
+        <v>10000</v>
+      </c>
+      <c r="D6" s="4">
+        <v>3</v>
+      </c>
+      <c r="E6" s="4">
+        <v>1</v>
+      </c>
+      <c r="F6" s="4">
+        <v>6</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="4">
+        <v>0</v>
+      </c>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8">
+        <v>0</v>
+      </c>
+      <c r="K6" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" s="5" customFormat="1" spans="1:11">
+      <c r="A7" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="5">
+        <v>10001</v>
+      </c>
+      <c r="D7" s="5">
+        <v>2</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0</v>
+      </c>
+      <c r="F7" s="5">
+        <v>6</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="5">
+        <v>0</v>
+      </c>
+      <c r="I7" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="K4" s="18">
-        <v>3</v>
-      </c>
-      <c r="L4" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" s="4" customFormat="1" spans="1:12">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="4">
-        <v>10000</v>
-      </c>
-      <c r="E5" s="4">
-        <v>3</v>
-      </c>
-      <c r="F5" s="4">
+      <c r="J7" s="5">
         <v>1</v>
-      </c>
-      <c r="G5" s="4">
-        <v>6</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="I5" s="4">
-        <v>0</v>
-      </c>
-      <c r="J5" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="K5" s="18">
-        <v>3</v>
-      </c>
-      <c r="L5" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" s="4" customFormat="1" spans="1:12">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="4">
-        <v>10000</v>
-      </c>
-      <c r="E6" s="4">
-        <v>3</v>
-      </c>
-      <c r="F6" s="4">
-        <v>1</v>
-      </c>
-      <c r="G6" s="4">
-        <v>6</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="I6" s="4">
-        <v>0</v>
-      </c>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18">
-        <v>0</v>
-      </c>
-      <c r="L6" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" s="5" customFormat="1" spans="1:12">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="5">
-        <v>10001</v>
-      </c>
-      <c r="E7" s="5">
-        <v>2</v>
-      </c>
-      <c r="F7" s="5">
-        <v>0</v>
-      </c>
-      <c r="G7" s="5">
-        <v>6</v>
-      </c>
-      <c r="H7" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="I7" s="5">
-        <v>0</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>25</v>
       </c>
       <c r="K7" s="5">
         <v>1</v>
       </c>
-      <c r="L7" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" s="5" customFormat="1" spans="1:12">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11" t="s">
+    </row>
+    <row r="8" s="5" customFormat="1" spans="1:11">
+      <c r="A8" s="9"/>
+      <c r="B8" s="9" t="s">
         <v>32</v>
       </c>
+      <c r="C8" s="5">
+        <v>10001</v>
+      </c>
       <c r="D8" s="5">
-        <v>10001</v>
+        <v>2</v>
       </c>
       <c r="E8" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F8" s="5">
+        <v>6</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" s="5">
         <v>0</v>
       </c>
-      <c r="G8" s="5">
-        <v>6</v>
-      </c>
-      <c r="H8" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="I8" s="5">
+      <c r="J8" s="5">
         <v>0</v>
       </c>
       <c r="K8" s="5">
         <v>0</v>
       </c>
-      <c r="L8" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="1"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="1"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="1"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="1"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="1"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="1"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="1"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-    </row>
-    <row r="25" spans="2:2">
-      <c r="B25" s="14"/>
-    </row>
-    <row r="26" spans="2:2">
-      <c r="B26" s="14"/>
-    </row>
-    <row r="27" spans="2:2">
-      <c r="B27" s="14"/>
-    </row>
-    <row r="28" spans="2:2">
-      <c r="B28" s="14"/>
-    </row>
-    <row r="29" spans="2:2">
-      <c r="B29" s="14"/>
-    </row>
-    <row r="30" spans="2:2">
-      <c r="B30" s="14"/>
-    </row>
-    <row r="31" spans="2:2">
-      <c r="B31" s="14"/>
-    </row>
-    <row r="32" spans="2:2">
-      <c r="B32" s="14"/>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="11"/>
+      <c r="B18" s="11"/>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="11"/>
+      <c r="B21" s="11"/>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="11"/>
+      <c r="B22" s="11"/>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="11"/>
+      <c r="B24" s="11"/>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="12"/>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="12"/>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="12"/>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="12"/>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="12"/>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="12"/>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="12"/>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
